--- a/flaskr/static/xlsx/prediksi.xlsx
+++ b/flaskr/static/xlsx/prediksi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,185 +526,119 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TKJ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>123</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Coba</t>
+          <t>ales</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
         <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="L2" t="n">
         <v>77</v>
       </c>
       <c r="M2" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N2" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="O2" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P2" t="n">
-        <v>84.52535320243106</v>
+        <v>95.32245171131188</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.86425746465326</v>
+        <v>82.68154910931614</v>
       </c>
       <c r="R2" t="n">
-        <v>80.83439741627465</v>
+        <v>77.86202879670392</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>yoi</t>
+          <t>dinis</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>80</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
         <v>78</v>
       </c>
-      <c r="E3" t="n">
-        <v>56</v>
-      </c>
-      <c r="F3" t="n">
-        <v>85</v>
-      </c>
-      <c r="G3" t="n">
-        <v>58</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>90</v>
+      </c>
+      <c r="K3" t="n">
+        <v>78</v>
+      </c>
+      <c r="L3" t="n">
+        <v>82</v>
+      </c>
+      <c r="M3" t="n">
+        <v>83</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80</v>
+      </c>
+      <c r="O3" t="n">
         <v>84</v>
       </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>68</v>
-      </c>
-      <c r="K3" t="n">
-        <v>61</v>
-      </c>
-      <c r="L3" t="n">
-        <v>53</v>
-      </c>
-      <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>54</v>
-      </c>
-      <c r="O3" t="n">
-        <v>54</v>
-      </c>
       <c r="P3" t="n">
-        <v>83.49552356327126</v>
+        <v>87.12737697167591</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.40958645900302</v>
+        <v>80.28213427604169</v>
       </c>
       <c r="R3" t="n">
-        <v>39.07664113079949</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>321</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nama</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>63</v>
-      </c>
-      <c r="E4" t="n">
-        <v>78</v>
-      </c>
-      <c r="F4" t="n">
-        <v>76</v>
-      </c>
-      <c r="G4" t="n">
-        <v>61</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>52</v>
-      </c>
-      <c r="K4" t="n">
-        <v>63</v>
-      </c>
-      <c r="L4" t="n">
-        <v>97</v>
-      </c>
-      <c r="M4" t="n">
-        <v>77</v>
-      </c>
-      <c r="N4" t="n">
-        <v>57</v>
-      </c>
-      <c r="O4" t="n">
-        <v>95</v>
-      </c>
-      <c r="P4" t="n">
-        <v>59.64975970400782</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>63.66169179733561</v>
-      </c>
-      <c r="R4" t="n">
-        <v>92.27751744845682</v>
+        <v>82.89471696247115</v>
       </c>
     </row>
   </sheetData>
